--- a/biology/Zoologie/Cypholoba_alveolata/Cypholoba_alveolata.xlsx
+++ b/biology/Zoologie/Cypholoba_alveolata/Cypholoba_alveolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypholoba alveolata est une espèce d'insectes de la famille des Carabidae, de la sous-famille des Anthiinae, de la tribu des Anthiini et de la sous-tribu des Cypholobina.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er février 2023) :
 Cypholoba alveolata alveolata
 Cypholoba alveolata plantii (Chaudoir, 1861)
 Cypholoba alveolata ranzanii (Bertoloni, 1849)</t>
@@ -544,13 +558,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cypholoba alveolata (Brême, 1844)[1]. L'espère est décrite en 1844 par l'entomologiste italien Ferdinando Arborio Gattinara di Breme. Le nom de ce dernier est francisé en François Brême : il est en son temps le président de la Société entomologique de France et publie l'essentiel de ses travaux en français.
-Renommage
-L'espèce a été initialement classée dans le genre Anthia sous le protonyme Anthia alveolata Brême, 1844[1].
-Synonymes
-Cypholoba alveolata a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cypholoba alveolata (Brême, 1844). L'espère est décrite en 1844 par l'entomologiste italien Ferdinando Arborio Gattinara di Breme. Le nom de ce dernier est francisé en François Brême : il est en son temps le président de la Société entomologique de France et publie l'essentiel de ses travaux en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cypholoba_alveolata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypholoba_alveolata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Anthia sous le protonyme Anthia alveolata Brême, 1844.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cypholoba_alveolata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypholoba_alveolata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cypholoba alveolata a pour synonymes :
 Anthia alveolata Brême, 1844
 Polyhirma alveolata (Brême, 1844)</t>
         </is>
